--- a/WebDataWorld/LabDatabase/static/LabDatabase/DownloadFile/PlasmidColumn.xlsx
+++ b/WebDataWorld/LabDatabase/static/LabDatabase/DownloadFile/PlasmidColumn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WebDatabase\WebDataWorld\LabDatabase\static\LabDatabase\DownloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977309E2-0920-48D4-AE66-BEDACEE0FCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A799C3-DA80-40C5-B463-91D1A59E0CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2085" windowWidth="15750" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="5205" windowWidth="19695" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>PlasmidName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>ParentSourceNote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -392,16 +396,16 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="21.875" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,15 +419,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
